--- a/data/2022/Fell/Extracted Hutton Roof Crags.xlsx
+++ b/data/2022/Fell/Extracted Hutton Roof Crags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2022\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5D5B9-04B5-434E-AE2C-430DB2B75890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC38C42-CEC2-4E65-B404-2F1E8A86897F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A959E217-D8EC-4127-BE0F-DCACACF824A1}</author>
+  </authors>
+  <commentList>
+    <comment ref="G40" authorId="0" shapeId="0" xr:uid="{A959E217-D8EC-4127-BE0F-DCACACF824A1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Updated from 19 as does not match the correct result</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="130">
   <si>
@@ -586,7 +604,7 @@
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -674,8 +692,14 @@
       <name val="Carlito"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +715,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +791,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -844,22 +874,6 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -880,6 +894,25 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1081,6 +1114,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Barry Wheeler" id="{0AEF5CD5-4963-4E18-B226-24D962038F3A}" userId="f36ac41b641eeba6" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1378,6 +1417,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G40" dT="2024-08-23T20:18:51.35" personId="{0AEF5CD5-4963-4E18-B226-24D962038F3A}" id="{A959E217-D8EC-4127-BE0F-DCACACF824A1}">
+    <text>Updated from 19 as does not match the correct result</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
@@ -1408,19 +1455,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="N1" s="7" t="s">
         <v>28</v>
       </c>
@@ -7143,16 +7190,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12" customHeight="1"/>
@@ -7586,8 +7633,8 @@
       <c r="E40" s="33">
         <v>3</v>
       </c>
-      <c r="G40" s="33">
-        <v>19</v>
+      <c r="G40" s="47">
+        <v>11</v>
       </c>
       <c r="I40" s="33">
         <v>1</v>
@@ -7702,6 +7749,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7710,20 +7758,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="43"/>
+    <col min="1" max="16384" width="8.796875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="36" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7731,13 +7779,13 @@
       <c r="A3" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="38">
         <v>33</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="38">
         <v>27</v>
       </c>
     </row>
@@ -7745,13 +7793,13 @@
       <c r="A4" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="38">
         <v>51</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="38">
         <v>28</v>
       </c>
     </row>
@@ -7759,13 +7807,13 @@
       <c r="A5" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="38">
         <v>58</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="38">
         <v>37</v>
       </c>
     </row>
@@ -7773,13 +7821,13 @@
       <c r="A6" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="38">
         <v>83</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="38">
         <v>74</v>
       </c>
     </row>
@@ -7787,13 +7835,13 @@
       <c r="A7" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="38">
         <v>128</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="38">
         <v>43</v>
       </c>
     </row>
@@ -7801,13 +7849,13 @@
       <c r="A8" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="38">
         <v>47</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="38">
         <v>37</v>
       </c>
     </row>
@@ -7815,21 +7863,21 @@
       <c r="A9" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="38">
         <v>0</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="36" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7840,15 +7888,15 @@
       <c r="B13" s="33">
         <v>12</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="32" t="s">
         <v>127</v>
       </c>
       <c r="E13" s="33">
         <v>9</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="32" t="s">
@@ -7857,15 +7905,15 @@
       <c r="B14" s="33">
         <v>12</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="32" t="s">
         <v>124</v>
       </c>
       <c r="E14" s="33">
         <v>1</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="32" t="s">
@@ -7874,15 +7922,15 @@
       <c r="B15" s="33">
         <v>18</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="32" t="s">
         <v>123</v>
       </c>
       <c r="E15" s="33">
         <v>2</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="32" t="s">
@@ -7891,15 +7939,15 @@
       <c r="B16" s="33">
         <v>37</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="32" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="33">
         <v>4</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="32" t="s">
@@ -7908,15 +7956,15 @@
       <c r="B17" s="33">
         <v>13</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E17" s="33">
         <v>0</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="40"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="32" t="s">
@@ -7925,15 +7973,15 @@
       <c r="B18" s="33">
         <v>19</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="32" t="s">
         <v>125</v>
       </c>
       <c r="E18" s="33">
         <v>0</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="32" t="s">
@@ -7942,21 +7990,21 @@
       <c r="B19" s="33">
         <v>0</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="32" t="s">
         <v>129</v>
       </c>
       <c r="E19" s="33">
         <v>0</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="39" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7967,8 +8015,8 @@
       <c r="B23" s="33">
         <v>20</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="E23" s="46"/>
+      <c r="C23" s="34"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="32" t="s">
@@ -7977,8 +8025,8 @@
       <c r="B24" s="33">
         <v>22</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="E24" s="46"/>
+      <c r="C24" s="34"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="32" t="s">
@@ -7987,8 +8035,8 @@
       <c r="B25" s="33">
         <v>27</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="E25" s="46"/>
+      <c r="C25" s="34"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="15">
       <c r="A26" s="32" t="s">
@@ -7997,8 +8045,8 @@
       <c r="B26" s="33">
         <v>11</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="E26" s="46"/>
+      <c r="C26" s="34"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="15">
       <c r="A27" s="32" t="s">
@@ -8007,8 +8055,8 @@
       <c r="B27" s="33">
         <v>1</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="E27" s="46"/>
+      <c r="C27" s="34"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:7" ht="15">
       <c r="A28" s="32" t="s">
@@ -8017,8 +8065,8 @@
       <c r="B28" s="33">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="34"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="32" t="s">
@@ -8027,14 +8075,14 @@
       <c r="B29" s="33">
         <v>0</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="E29" s="46"/>
+      <c r="C29" s="34"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="31" spans="1:7" ht="22.5">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="36" t="s">
         <v>25</v>
       </c>
     </row>
